--- a/CCHF_GenBank_Combined.xlsx
+++ b/CCHF_GenBank_Combined.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24-MAY-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>03-Oct-2012 (1)</t>
+          <t>2012 (1)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -609,27 +609,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12-MAY-2009 (3)</t>
+          <t>2009 (3)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09-DEC-2015 (17)</t>
+          <t>2015 (17)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23-MAY-2023 (4)</t>
+          <t>2023 (4)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Apr-2021 (1), Aug-2020 (1), Jul-2020 (1), Jun-2020 (1)</t>
+          <t>2020 (3), 2021 (1)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16-FEB-2021 (1)</t>
+          <t>2021 (1)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14-JUN-2021 (2), 21-FEB-2021 (2), 30-AUG-2021 (1)</t>
+          <t>2021 (5)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -944,27 +944,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17-MAR-2021 (18)</t>
+          <t>2021 (18)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1011,27 +1011,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-SEP-2014 (3)</t>
+          <t>2014 (3)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24-MAY-2013 (3)</t>
+          <t>2013 (3)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>03-Oct-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23-NOV-2005 (8), 26-JUL-2016 (1)</t>
+          <t>2005 (8), 2016 (1)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23-NOV-2005 (6), 26-JUL-2016 (1)</t>
+          <t>2005 (6), 2016 (1)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23-NOV-2005 (2)</t>
+          <t>2005 (2)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15-MAY-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31-OCT-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1490,22 +1490,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (15)</t>
+          <t>2016 (15)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>31-DEC-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24-SEP-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-SEP-2019 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2008 (1), 08-Apr-2008 (1)</t>
+          <t>2008 (2)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (3)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20-Jul-2015 (3)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>30-AUG-2012 (1)</t>
+          <t>2012 (1)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25-AUG-2020 (13)</t>
+          <t>2020 (13)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Jul-2017 (6), Jun-2017 (3), Jun-2013 (2), May-2013 (2)</t>
+          <t>2017 (9), 2013 (4)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>25-AUG-2020 (21), 08-MAY-2023 (3), 07-MAY-2023 (3)</t>
+          <t>2020 (21), 2023 (6)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Jun-2017 (10), Jul-2017 (7), 22-May-2017 (6), Jun-2013 (2), May-2013 (2)</t>
+          <t>2017 (23), 2013 (4)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12-MAR-2014 (75)</t>
+          <t>2014 (75)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>01-Oct-2012 (52), 01-Jul-2013 (23)</t>
+          <t>2012 (52), 2013 (23)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12-MAR-2014 (11)</t>
+          <t>2014 (11)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01-Oct-2012 (11)</t>
+          <t>2012 (11)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>17-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>06-Jun-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>May-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2499,22 +2499,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23-MAY-2023 (1)</t>
+          <t>2023 (1)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23-MAY-2023 (5)</t>
+          <t>2023 (5)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Homo sapiens (4), nan (1)</t>
+          <t>Homo sapiens (4), NA (1)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Spain (4), nan (1)</t>
+          <t>Spain (4), NA (1)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>nan (1), Apr-2021 (1), Aug-2020 (1), Jul-2020 (1), Jun-2020 (1)</t>
+          <t>2020 (3), NA (1), 2021 (1)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2771,27 +2771,27 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>26-SEP-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (3), 02-APR-2016 (3)</t>
+          <t>2018 (3), 2016 (3)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2013-11-12 (6)</t>
+          <t>2013 (6)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>02-APR-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2014-05-09 (3)</t>
+          <t>2014 (3)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>01-OCT-2004 (4)</t>
+          <t>2004 (4)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3039,27 +3039,27 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>01-OCT-2004 (1)</t>
+          <t>2004 (1)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3177,27 +3177,27 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (8), 01-OCT-2004 (5), 27-SEP-2004 (2)</t>
+          <t>2016 (8), 2004 (7)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Nigeria (4), Russia (3), nan (3), Iraq:Baghdad (2), Pakistan:Karachi (2), Uzbekistan (1)</t>
+          <t>Nigeria (4), Russia (3), NA (3), Iraq:Baghdad (2), Pakistan:Karachi (2), Uzbekistan (1)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>envelope glycoprotein precursor (4), L protein (4), nucleocapsid protein (3), nucleocapsid (2), polyprotein (1), nan (1)</t>
+          <t>envelope glycoprotein precursor (4), L protein (4), nucleocapsid protein (3), nucleocapsid (2), polyprotein (1), NA (1)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>30-DEC-2022 (3)</t>
+          <t>2022 (3)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30-JAN-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27-JUL-2012 (35)</t>
+          <t>2012 (35)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31-JAN-2023 (1)</t>
+          <t>2023 (1)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-NOV-2009 (1)</t>
+          <t>2009 (1)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22-Jun-2009 (1)</t>
+          <t>2009 (1)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3583,22 +3583,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>27-SEP-2004 (2)</t>
+          <t>2004 (2)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>04-OCT-2015 (29)</t>
+          <t>2015 (29)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>capsid protein (28), nan (1)</t>
+          <t>capsid protein (28), NA (1)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3721,27 +3721,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>18-MAY-2021 (10)</t>
+          <t>2021 (10)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (23)</t>
+          <t>2016 (23)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (10), 26-JUL-2016 (1)</t>
+          <t>2016 (11)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>nan (9), tick (2)</t>
+          <t>NA (9), tick (2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3930,27 +3930,27 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18-NOV-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>01-APR-2020 (1)</t>
+          <t>2020 (1)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>01-APR-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>13-MAR-2001 (1)</t>
+          <t>2001 (1)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4202,22 +4202,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>02-AUG-1993 (2)</t>
+          <t>1993 (2)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15-MAY-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Jul-2006 (1)</t>
+          <t>2006 (1)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>14-JUL-2016 (5)</t>
+          <t>2016 (5)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4470,27 +4470,27 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>18-MAR-2010 (12)</t>
+          <t>2010 (12)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>01-MAY-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Apr-1956 (1)</t>
+          <t>1956 (1)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>21-MAR-2018 (2)</t>
+          <t>2018 (2)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4671,27 +4671,27 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>04-NOV-2005 (1)</t>
+          <t>2005 (1)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4738,22 +4738,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (2)</t>
+          <t>2018 (2)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>nan (1), Hyalomma excavatum (1)</t>
+          <t>NA (1), Hyalomma excavatum (1)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>nan (1), Nigeria: Sokoto (1)</t>
+          <t>NA (1), Nigeria: Sokoto (1)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4805,22 +4805,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-JAN-2023 (1)</t>
+          <t>2023 (1)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4882,12 +4882,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (3)</t>
+          <t>2018 (3)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2013-11-12 (3)</t>
+          <t>2013 (3)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>06-MAY-2023 (3), 08-MAY-2023 (3), 07-MAY-2023 (3)</t>
+          <t>2023 (9)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1975 (3), Jun-2017 (3), 22-May-2017 (3)</t>
+          <t>2017 (6), 1975 (3)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>07-FEB-2023 (1)</t>
+          <t>2023 (1)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14-JUL-2016 (14)</t>
+          <t>2016 (14)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (6), 03-MAR-2005 (1)</t>
+          <t>2016 (6), 2005 (1)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5278,22 +5278,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>19-OCT-2009 (1)</t>
+          <t>2009 (1)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-NOV-2015 (4), 20-OCT-2015 (2)</t>
+          <t>2015 (6)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5416,12 +5416,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (6)</t>
+          <t>2016 (6)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>04-NOV-2015 (3)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2013 (2), 07-Jun-2013 (1)</t>
+          <t>2013 (3)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>03-MAR-2005 (1)</t>
+          <t>2005 (1)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08-Apr-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (2), 22-JAN-2004 (2)</t>
+          <t>2016 (2), 2004 (2)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>29-JUL-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>01-AUG-2021 (2)</t>
+          <t>2021 (2)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>21-SEP-2022 (1)</t>
+          <t>2022 (1)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>07-APR-2023 (7)</t>
+          <t>2023 (7)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>17-JAN-2023 (1)</t>
+          <t>2023 (1)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>23-Jun-2019 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>17-JUN-2023 (2)</t>
+          <t>2023 (2)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>17-JUN-2023 (17)</t>
+          <t>2023 (17)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (17)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (17)</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (1), 22-SEP-2005 (1)</t>
+          <t>2018 (1), 2005 (1)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>19-SEP-2005 (1)</t>
+          <t>2005 (1)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6437,27 +6437,27 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>03-DEC-1996 (2)</t>
+          <t>1996 (2)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6508,12 +6508,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (4), 04-APR-2007 (2)</t>
+          <t>2016 (4), 2007 (2)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>nan (5), Hyalomma marginatum (1)</t>
+          <t>NA (5), Hyalomma marginatum (1)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>02-APR-2016 (6), 13-AUG-2018 (3)</t>
+          <t>2016 (6), 2018 (3)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2013-11-12 (6), 2014-05-09 (3)</t>
+          <t>2013 (6), 2014 (3)</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6646,12 +6646,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>02-OCT-2005 (1)</t>
+          <t>2005 (1)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6713,22 +6713,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>31-AUG-2001 (1)</t>
+          <t>2001 (1)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>14-MAY-2012 (4)</t>
+          <t>2012 (4)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Jul-2006 (4)</t>
+          <t>2006 (4)</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6851,12 +6851,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6918,12 +6918,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>04-APR-2007 (3)</t>
+          <t>2007 (3)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>nan (2), Homo sapiens (1)</t>
+          <t>NA (2), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>26-AUG-2020 (40)</t>
+          <t>2020 (40)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>12-JAN-2022 (6)</t>
+          <t>2022 (6)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>02-OCT-2022 (9)</t>
+          <t>2022 (9)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Jun-2022 (6), May-2022 (3)</t>
+          <t>2022 (9)</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>01-JUN-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>01-JUN-2016 (1299)</t>
+          <t>2016 (1299)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>18-JAN-2020 (21)</t>
+          <t>2020 (21)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>May-2016 (12), Jun-2016 (6), Jul-2016 (3)</t>
+          <t>2016 (21)</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>27-JUL-2020 (694)</t>
+          <t>2020 (694)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>05-Jun-2017 (18), 27-Jun-2016 (18), 19-May-2016 (15), 08-Jun-2015 (15), 27-May-2015 (15), 25-May-2016 (12), 04-May-2016 (12), 13-May-2015 (12), 21-Jul-2015 (12), 10-May-2016 (12), 20-Jun-2016 (12), 19-Jun-2015 (12), 26-May-2016 (9), 15-May-2016 (9), 14-May-2016 (9), 18-May-2016 (9), 23-May-2016 (9), 03-Aug-2016 (9), 14-Jul-2015 (9), 24-Jun-2016 (9), 03-Jun-2016 (9), 26-Apr-2016 (9), 06-May-2016 (9), 11-May-2016 (9), 03-Jun-2015 (9), 12-Jun-2015 (9), 02-Jun-2015 (9), 23-Jun-2016 (7), 16-May-2016 (6), 29-Jun-2016 (6), 15-Jun-2016 (6), 22-Apr-2016 (6), 23-Apr-2016 (6), 13-Apr-2016 (6), 31-Jul-2016 (6), 16-Jul-2016 (6), 20-May-2015 (6), 19-May-2015 (6), 12-May-2015 (6), 30-May-2016 (6), 03-Jul-2016 (6), 14-Jun-2016 (6), 13-Jun-2016 (6), 28-Jun-2016 (6), 25-Jun-2016 (6), 22-Jun-2016 (6), 05-Jun-2016 (6), 26-Jun-2016 (6), 09-Jun-2016 (6), 27-Jul-2016 (6), 18-Jun-2015 (6), 31-Jul-2015 (6), 21-May-2015 (6), 30-Jun-2015 (6), 06-May-2015 (6), 30-Jul-2015 (6), 23-Jul-2015 (6), 01-Jun-2015 (6), 28-May-2015 (6), 10-Jun-2015 (6), 22-Jun-2015 (6), 03-May-2017 (3), 08-Jun-2016 (3), 20-Apr-2016 (3), 16-Apr-2016 (3), 15-Apr-2016 (3), 14-Jul-2016 (3), 02-Jun-2016 (3), 28-May-2016 (3), 31-May-2016 (3), 07-Jun-2016 (3), 12-May-2016 (3), 16-Jun-2016 (3), 09-Jul-2016 (3), 04-Jul-2016 (3), 13-May-2016 (3), 04-Jun-2016 (3), 12-Jun-2016 (3), 01-May-2016 (3), 03-May-2016 (3), 21-May-2016 (3), 22-May-2016 (3), 05-May-2016 (3), 17-Jul-2016 (3), 21-Jun-2016 (3), 28-Apr-2016 (3), 18-Aug-2016 (3), 25-Apr-2016 (3), 22-Jul-2016 (3), 14-Sep-2016 (3), 05-Jun-2015 (3), 29-May-2015 (3), 01-Aug-2015 (3), 22-Jul-2015 (3), 15-Jun-2015 (3), 10-Aug-2015 (3), 26-May-2015 (3), 24-Aug-2015 (3), 11-Jun-2015 (3), 16-May-2015 (3), 30-May-2015 (3), 20-Jun-2015 (3), 02-Jul-2015 (3), 15-May-2015 (3), 12-Aug-2015 (3), 14-Jun-2015 (3), 20-Apr-2015 (3), 09-Aug-2015 (3), 14-Apr-2015 (3), 23-Jun-2015 (3), 08-May-2015 (3), 09-Jun-2015 (3), 02-Aug-2015 (3), 27-Jun-2015 (3), 09-Jul-2015 (3), 04-Jun-2015 (3), 27-Apr-2015 (3), 30-Apr-2015 (3), 03-May-2015 (3), 23-May-2015 (3), 04-Jul-2015 (3), 17-Jun-2015 (3), 02-May-2015 (3), 24-Jul-2015 (3)</t>
+          <t>2016 (385), 2015 (288), 2017 (21)</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>01-JUN-2016 (57)</t>
+          <t>2016 (57)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>30-MAY-2023 (3)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>15-Apr-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>24-OCT-2011 (1)</t>
+          <t>2011 (1)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11-MAR-2009 (2), 24-OCT-2011 (1)</t>
+          <t>2009 (2), 2011 (1)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7726,12 +7726,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>07-JUN-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>22-MAR-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>07-JUN-2017 (2)</t>
+          <t>2017 (2)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7929,12 +7929,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>25-NOV-2016 (18)</t>
+          <t>2016 (18)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8000,12 +8000,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>07-JUN-2017 (3)</t>
+          <t>2017 (3)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (6), 23-JUL-2016 (4)</t>
+          <t>2016 (10)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>21-APR-2021 (21)</t>
+          <t>2021 (21)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08-May-2019 (2), 29-Sep-2019 (1), 14-Sep-2019 (1), 26-Aug-2019 (1), 29-Apr-2019 (1), 09-Apr-2019 (1), 27-Mar-2019 (1), 15-Mar-2019 (1), 02-Mar-2019 (1), 09-Sep-2018 (1), 26-Aug-2018 (1), 10-Aug-2018 (1), 03-May-2018 (1), 21-Apr-2018 (1), 11-Apr-2018 (1), 06-Mar-2018 (1), 14-Sep-2017 (1), 01-Sep-2017 (1), 28-Aug-2017 (1), 08-Aug-2017 (1)</t>
+          <t>2019 (10), 2018 (7), 2017 (4)</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>26-DEC-2018 (5)</t>
+          <t>2018 (5)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>10-JUN-2023 (11)</t>
+          <t>2023 (11)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>18-JUN-2023 (3)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>13-Feb-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>10-APR-2006 (5)</t>
+          <t>2006 (5)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>04-MAY-2020 (2)</t>
+          <t>2020 (2)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>01-Jul-2017 (1), 01-Jul-2016 (1)</t>
+          <t>2017 (1), 2016 (1)</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16-MAR-2020 (9)</t>
+          <t>2020 (9)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>27-MAY-2013 (6)</t>
+          <t>2013 (6)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>23-DEC-2015 (2)</t>
+          <t>2015 (2)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>19-FEB-2019 (2)</t>
+          <t>2019 (2)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8867,12 +8867,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>19-Jun-2018 (1), 16-Apr-2012 (1)</t>
+          <t>2018 (1), 2012 (1)</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>28-JUN-2011 (8), 25-JUL-2016 (1)</t>
+          <t>2011 (8), 2016 (1)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Oct-2008 (6), Jun-2009 (3)</t>
+          <t>2008 (6), 2009 (3)</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>02-MAY-2010 (2)</t>
+          <t>2010 (2)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Oct-2008 (2)</t>
+          <t>2008 (2)</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>01-FEB-2023 (2)</t>
+          <t>2023 (2)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>nucleoprotein (1), nan (1)</t>
+          <t>nucleoprotein (1), NA (1)</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>01-MAY-2018 (12)</t>
+          <t>2018 (12)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>15-APR-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>17-APR-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>08-Nov-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>19-SEP-2021 (44)</t>
+          <t>2021 (44)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>11-Apr-2019 (3), 12-Jul-2018 (3), 22-Sep-2018 (3), 07-Sep-2018 (3), 23-Aug-2018 (3), 24-Jan-2019 (3), 30-Oct-2018 (3), 02-Jan-2019 (3), 24-Sep-2018 (3), 18-Aug-2018 (3), 18-Aug-2017 (3), 09-Nov-2015 (3), 22-Jul-2019 (2), 14-Jul-2018 (2), 08-Aug-2013 (2), 31-Jan-2018 (1), 18-Aug-2013 (1)</t>
+          <t>2018 (24), 2019 (11), 2017 (3), 2015 (3), 2013 (3)</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>26-MAR-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>13-Jun-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>08-JAN-2019 (3)</t>
+          <t>2019 (3)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>03-Aug-2017 (3)</t>
+          <t>2017 (3)</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>18-JUN-2023 (3)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>25-Feb-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9631,22 +9631,22 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>11-MAY-2015 (7)</t>
+          <t>2015 (7)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>24-SEP-2016 (11)</t>
+          <t>2016 (11)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>N-protein (9), nan (2)</t>
+          <t>N-protein (9), NA (2)</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>10-APR-2019 (3)</t>
+          <t>2019 (3)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>05-APR-2024 (1)</t>
+          <t>2024 (1)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9852,12 +9852,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>12-NOV-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Mar-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9984,12 +9984,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>19-OCT-2022 (3)</t>
+          <t>2022 (3)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9999,12 +9999,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>14-May-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2008 (3), Jan-2008 (1)</t>
+          <t>2008 (4)</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>14-MAY-2012 (4), 25-JUL-2016 (2)</t>
+          <t>2012 (4), 2016 (2)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Jul-2006 (4), 1999 (1), 2008 (1)</t>
+          <t>2006 (4), 1999 (1), 2008 (1)</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (60)</t>
+          <t>2016 (60)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10268,12 +10268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (39)</t>
+          <t>2016 (39)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (39)</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (39)</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10337,22 +10337,22 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (5)</t>
+          <t>2016 (5)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>13-OCT-2014 (40)</t>
+          <t>2014 (40)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10425,12 +10425,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>01-May-2012 (37), 2013 (3)</t>
+          <t>2012 (37), 2013 (3)</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>nucleocapsid protein (36), nan (4)</t>
+          <t>nucleocapsid protein (36), NA (4)</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>30-AUG-2017 (3)</t>
+          <t>2017 (3)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>29-Nov-2014 (3)</t>
+          <t>2014 (3)</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>22-MAR-2020 (8)</t>
+          <t>2020 (8)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>28-Apr-2019 (8)</t>
+          <t>2019 (8)</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>22-FEB-2022 (15)</t>
+          <t>2022 (15)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Mar-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10767,12 +10767,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>23-DEC-2006 (1)</t>
+          <t>2006 (1)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10836,12 +10836,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>03-SEP-2008 (2)</t>
+          <t>2008 (2)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -10905,12 +10905,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>28-APR-2006 (1)</t>
+          <t>2006 (1)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10974,12 +10974,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>01-JUL-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>28-MAR-2015 (4)</t>
+          <t>2015 (4)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (6)</t>
+          <t>2016 (6)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Jul-2007 (6)</t>
+          <t>2007 (6)</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>18-FEB-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>27-May-2012 (1)</t>
+          <t>2012 (1)</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>06-APR-2016 (6)</t>
+          <t>2016 (6)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>19-Apr-2012 (1), 17-Sep-2011 (1), 12-May-2012 (1), 23-Jun-2013 (1), 03-Jun-2013 (1), 02-Jul-2012 (1)</t>
+          <t>2012 (3), 2013 (2), 2011 (1)</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Jul-2009 (1)</t>
+          <t>2009 (1)</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>23-MAY-2024 (15)</t>
+          <t>2024 (15)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>26-MAR-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>31-Mar-2013 (1)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>29-AUG-2023 (120), 15-AUG-2023 (3)</t>
+          <t>2023 (123)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>01-Aug-2015 (12), 11-Jul-2015 (12), 08-Jul-2015 (12), 04-Sep-2015 (12), 03-Sep-2015 (12), 02-Sep-2015 (12), 01-Sep-2015 (12), 31-Aug-2015 (12), 02-Aug-2015 (6), 10-Jul-2015 (6), 09-Jul-2015 (6), 28-May-2015 (6), 20-Jul-2015 (3)</t>
+          <t>2015 (123)</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>17-SEP-2017 (6)</t>
+          <t>2017 (6)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>03-JUL-2016 (8), 30-APR-2016 (7)</t>
+          <t>2016 (15)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -11757,12 +11757,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>16-AUG-2006 (36), 06-MAY-2023 (3), 24-JAN-2022 (3)</t>
+          <t>2006 (36), 2023 (3), 2022 (3)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Homo sapiens (22), Rhipicephalus bursa (6), sheep (3), Hyalomma marginatum rufipes (3), goat (3), Hyalomma truncatum (3), nan (2)</t>
+          <t>Homo sapiens (22), Rhipicephalus bursa (6), sheep (3), Hyalomma marginatum rufipes (3), goat (3), Hyalomma truncatum (3), NA (2)</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11830,22 +11830,22 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>25-APR-2013 (3)</t>
+          <t>2013 (3)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>22-JUL-2017 (47), 24-JUL-2017 (10)</t>
+          <t>2017 (57)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>01-May-2015 (28), 10-Apr-2015 (15), 01-May-2016 (4), 04-Apr-2016 (4), 05-Apr-2016 (3), 14-Apr-2016 (1), 02-Apr-2016 (1), 24-May-2015 (1)</t>
+          <t>2015 (44), 2016 (13)</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>05-MAR-2022 (5)</t>
+          <t>2022 (5)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>05-AUG-2023 (3), 20-JUL-2023 (2), 06-AUG-2023 (1), 22-JUL-2023 (1)</t>
+          <t>2023 (7)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12060,12 +12060,12 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>nan (4), cytochrome c oxidase subunit I (3)</t>
+          <t>NA (4), cytochrome c oxidase subunit I (3)</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -12118,22 +12118,22 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>28-MAR-2008 (2)</t>
+          <t>2008 (2)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12264,12 +12264,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>10-APR-2006 (1)</t>
+          <t>2006 (1)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Feb-2010 (1)</t>
+          <t>2010 (1)</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>05-AUG-2018 (48)</t>
+          <t>2018 (48)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>14-FEB-2024 (3)</t>
+          <t>2024 (3)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2020-10 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>22-APR-2014 (11)</t>
+          <t>2014 (11)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>May-2012/Jun-2012 (11)</t>
+          <t>2012 (11)</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>27-JAN-2014 (59)</t>
+          <t>2014 (59)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>01-Oct-2012 (59)</t>
+          <t>2012 (59)</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>20-DEC-2014 (3)</t>
+          <t>2014 (3)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>06-Jun-2001 (3)</t>
+          <t>2001 (3)</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>21-SEP-2019 (6)</t>
+          <t>2019 (6)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>19-JAN-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>02-Aug-2015 (3)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>02-OCT-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sep-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>23-AUG-2017 (2)</t>
+          <t>2017 (2)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>17-Oct-2014 (2)</t>
+          <t>2014 (2)</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>03-APR-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Jun-2008 (3)</t>
+          <t>2008 (3)</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -13132,22 +13132,22 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>25-OCT-2010 (1)</t>
+          <t>2010 (1)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -13205,7 +13205,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>06-JUL-2014 (30)</t>
+          <t>2014 (30)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13347,12 +13347,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>09-AUG-2021 (1), 05-AUG-2021 (1)</t>
+          <t>2021 (2)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>12-MAR-2017 (3)</t>
+          <t>2017 (3)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>May-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>26-NOV-2018 (6)</t>
+          <t>2018 (6)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Jun-2018 (6)</t>
+          <t>2018 (6)</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>26-FEB-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>30-Sep-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13631,22 +13631,22 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>25-FEB-2005 (1)</t>
+          <t>2005 (1)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -13700,22 +13700,22 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -13769,22 +13769,22 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>12-NOV-2020 (5)</t>
+          <t>2020 (5)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>04-NOV-2020 (9)</t>
+          <t>2020 (9)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>13-JAN-2019 (11)</t>
+          <t>2019 (11)</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>17-JUN-2023 (13)</t>
+          <t>2023 (13)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14053,7 +14053,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>30-SEP-2012 (8)</t>
+          <t>2012 (8)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>02-JUN-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>24-May-2011 (1)</t>
+          <t>2011 (1)</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14195,12 +14195,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>04-MAY-2015 (3)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -14264,12 +14264,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>29-MAR-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14352,12 +14352,12 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>05-Jun-2009 (2)</t>
+          <t>2009 (2)</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>nucleocapsid protein (1), nan (1)</t>
+          <t>nucleocapsid protein (1), NA (1)</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>30-NOV-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14483,22 +14483,22 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (1), 21-JUN-2004 (1)</t>
+          <t>2018 (1), 2004 (1)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>14-MAR-2017 (12)</t>
+          <t>2017 (12)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>02-APR-2017 (24)</t>
+          <t>2017 (24)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>11-SEP-2014 (2)</t>
+          <t>2014 (2)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14763,12 +14763,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>01-MAY-2006 (5)</t>
+          <t>2006 (5)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>10-OCT-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>07-DEC-2016 (45)</t>
+          <t>2016 (45)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>01-OCT-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>27-Jun-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15047,12 +15047,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>05-MAR-2002 (2)</t>
+          <t>2002 (2)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>nan (1), Homo sapiens (1)</t>
+          <t>NA (1), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>20-SEP-2012 (4)</t>
+          <t>2012 (4)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>07-SEP-2012 (4)</t>
+          <t>2012 (4)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>May-2010 (4)</t>
+          <t>2010 (4)</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>20-AUG-2018 (2)</t>
+          <t>2018 (2)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>21-Apr-2017 (2)</t>
+          <t>2017 (2)</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15331,22 +15331,22 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>08-OCT-1994 (1)</t>
+          <t>1994 (1)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15400,22 +15400,22 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>31-MAR-1995 (8), 01-APR-1995 (2)</t>
+          <t>1995 (10)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15469,22 +15469,22 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>11-AUG-2002 (1)</t>
+          <t>2002 (1)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>23-JUN-2006 (2)</t>
+          <t>2006 (2)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15615,12 +15615,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (14)</t>
+          <t>2016 (14)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (14)</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -15688,12 +15688,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>24-FEB-2006 (2)</t>
+          <t>2006 (2)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>nan (1), tick (1)</t>
+          <t>NA (1), tick (1)</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>May-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -15830,12 +15830,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Jun-2007 (1)</t>
+          <t>2007 (1)</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>21-AUG-2023 (60)</t>
+          <t>2023 (60)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Homo sapiens (30), nan (18), Tick (9), tick (3)</t>
+          <t>Homo sapiens (30), NA (18), Tick (9), tick (3)</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>15-SEP-2019 (18)</t>
+          <t>2019 (18)</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16106,7 +16106,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>08-JAN-2024 (3)</t>
+          <t>2024 (3)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16179,12 +16179,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>17-JUN-2023 (7)</t>
+          <t>2023 (7)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16194,7 +16194,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16248,22 +16248,22 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>04-DEC-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>27-JUL-2017 (2)</t>
+          <t>2017 (2)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Aug-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16390,7 +16390,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>11-MAY-2019 (3)</t>
+          <t>2019 (3)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>20-Oct-2013 (1), 20-Oct-2011 (1), 20-Nov-2011 (1)</t>
+          <t>2011 (2), 2013 (1)</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>13-FEB-2023 (8)</t>
+          <t>2023 (8)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>11-Nov-2016 (2), 21-Jun-2017 (1), 14-Sep-2017 (1), 07-Feb-2017 (1), 26-Jan-2017 (1), 27-Oct-2016 (1), 17-Oct-2016 (1)</t>
+          <t>2017 (4), 2016 (4)</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>13-JAN-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>14-NOV-2020 (3)</t>
+          <t>2020 (3)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>07-May-2018 (3)</t>
+          <t>2018 (3)</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -16674,22 +16674,22 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>10-APR-2019 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>03-JUL-2016 (2), 29-AUG-2016 (1)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>19-OCT-2022 (2)</t>
+          <t>2022 (2)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>27-Apr-2021 (2)</t>
+          <t>2021 (2)</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>17-MAR-2011 (3)</t>
+          <t>2011 (3)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>31-JUL-2023 (8)</t>
+          <t>2023 (8)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Sep-2020 (8)</t>
+          <t>2020 (8)</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>06-JUL-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>12-APR-2017 (27)</t>
+          <t>2017 (27)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (27)</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>24-MAY-2013 (2)</t>
+          <t>2013 (2)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17184,7 +17184,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Oct-2011 (2)</t>
+          <t>2011 (2)</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>14-JUL-2016 (15)</t>
+          <t>2016 (15)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17311,12 +17311,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>29-JAN-2010 (3)</t>
+          <t>2010 (3)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>06-MAR-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>11-FEB-2019 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>01-May-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>03-APR-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>18-JUL-2016 (6)</t>
+          <t>2016 (6)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>02-SEP-2017 (8)</t>
+          <t>2017 (8)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>07-Jun-2007 (2), 2005 (1), 21-May-2014 (1), 23-Apr-2013 (1), 20-Aug-2014 (1), 04-Jun-2008 (1), 08-Jun-2010 (1)</t>
+          <t>2014 (2), 2007 (2), 2005 (1), 2013 (1), 2008 (1), 2010 (1)</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -17737,12 +17737,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -17810,22 +17810,22 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (1), 19-OCT-2009 (1)</t>
+          <t>2016 (1), 2009 (1)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>23-JUL-2014 (1)</t>
+          <t>2014 (1)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>02-Jun-2012 (1)</t>
+          <t>2012 (1)</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>26-SEP-2017 (13)</t>
+          <t>2017 (13)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>12-JAN-2011 (3)</t>
+          <t>2011 (3)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18102,7 +18102,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>26-NOV-2013 (2)</t>
+          <t>2013 (2)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Jun-2004 (1), May-2003 (1)</t>
+          <t>2004 (1), 2003 (1)</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>23-JAN-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18186,7 +18186,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Jun-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>21-MAR-2018 (3)</t>
+          <t>2018 (3)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>29-Jun-2015 (3)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -18313,22 +18313,22 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>13-DEC-2001 (1)</t>
+          <t>2001 (1)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18386,12 +18386,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>03-APR-2024 (4)</t>
+          <t>2024 (4)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>2016-06 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>08-JAN-2023 (1), 10-NOV-2010 (1)</t>
+          <t>2023 (1), 2010 (1)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18469,12 +18469,12 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>15-MAY-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>May-2009 (3)</t>
+          <t>2009 (3)</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>22-MAY-2012 (9)</t>
+          <t>2012 (9)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>May-2009 (9)</t>
+          <t>2009 (9)</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (9)</t>
+          <t>2016 (9)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -18735,7 +18735,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>10-OCT-2016 (12)</t>
+          <t>2016 (12)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>13-JAN-2019 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>15-Jul-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -18873,22 +18873,22 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>28-JAN-2003 (2)</t>
+          <t>2003 (2)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>nan (1), Homo sapiens (1965) (1)</t>
+          <t>NA (1), Homo sapiens (1965) (1)</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -18942,22 +18942,22 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>03-NOV-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>04-OCT-2017 (3)</t>
+          <t>2017 (3)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>31-Aug-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>26-JUL-2024 (104)</t>
+          <t>2024 (104)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19157,22 +19157,22 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (11)</t>
+          <t>2016 (11)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Homo sapiens (6), nan (2), Hyalomma asiaticum (1), Hyalomma impeltatum (1), Hyalomma anatolicum (1)</t>
+          <t>Homo sapiens (6), NA (2), Hyalomma asiaticum (1), Hyalomma impeltatum (1), Hyalomma anatolicum (1)</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>21-MAR-2018 (1)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>25-May-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19299,22 +19299,22 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>23-JUL-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19368,12 +19368,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>17-JUN-2023 (15)</t>
+          <t>2023 (15)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>23-MAR-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19452,7 +19452,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>01-Oct-2015 (1)</t>
+          <t>2015 (1)</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -19506,7 +19506,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>26-MAR-2024 (1)</t>
+          <t>2024 (1)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>13-AUG-2018 (1), 19-SEP-2005 (1), 22-SEP-2005 (1)</t>
+          <t>2005 (2), 2018 (1)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>17-FEB-2020 (33)</t>
+          <t>2020 (33)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (33)</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -19721,12 +19721,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -19794,12 +19794,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>21-APR-2004 (2), 26-JUL-2016 (1)</t>
+          <t>2004 (2), 2016 (1)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -19809,7 +19809,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>31-DEC-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>28-FEB-2017 (4)</t>
+          <t>2017 (4)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>02-APR-2019 (3)</t>
+          <t>2019 (3)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Apr-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20070,7 +20070,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>09-NOV-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20085,7 +20085,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>02-Feb-2015 (1), 25-Jan-2015 (1), 21-Jan-2015 (1)</t>
+          <t>2015 (3)</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>10-APR-2014 (4)</t>
+          <t>2014 (4)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Jun-2007 (2), Apr-2007 (2)</t>
+          <t>2007 (4)</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>27-APR-2024 (3)</t>
+          <t>2024 (3)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>15-Sep-2023 (1), 15-Aug-2023 (1), 24-Jul-2023 (1)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20281,12 +20281,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>30-JUL-2022 (5)</t>
+          <t>2022 (5)</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -20296,12 +20296,12 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -20350,12 +20350,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>29-JUN-2008 (1)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>26-AUG-2020 (15)</t>
+          <t>2020 (15)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20492,7 +20492,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>22-JAN-2017 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>18-NOV-2013 (3)</t>
+          <t>2013 (3)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20630,7 +20630,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>10-FEB-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>14-JUL-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -20768,12 +20768,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>13-FEB-2016 (1)</t>
+          <t>2016 (1)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>nan (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>22-MAR-2013 (11)</t>
+          <t>2013 (11)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -20910,12 +20910,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (6), 12-SEP-2012 (3)</t>
+          <t>2016 (6), 2012 (3)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Homo sapiens (5), nan (4)</t>
+          <t>Homo sapiens (5), NA (4)</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -20979,12 +20979,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>07-AUG-2021 (21)</t>
+          <t>2021 (21)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Homo sapiens (18), nan (3)</t>
+          <t>Homo sapiens (18), NA (3)</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>30-NOV-2014 (14)</t>
+          <t>2014 (14)</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21121,12 +21121,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>23-JUL-2016 (6), 26-JUL-2016 (5), 04-APR-2007 (1)</t>
+          <t>2016 (11), 2007 (1)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>nan (6), Homo sapiens (2), Hyalomma marginatum (ticks) (2), Hyalomma marginatum (1), Hyalomma marginatum (tick) (1)</t>
+          <t>NA (6), Homo sapiens (2), Hyalomma marginatum (ticks) (2), Hyalomma marginatum (1), Hyalomma marginatum (tick) (1)</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21190,12 +21190,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>19-SEP-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -21205,7 +21205,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>06-SEP-2021 (3)</t>
+          <t>2021 (3)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>11-MAR-2009 (2)</t>
+          <t>2009 (2)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>15-MAR-2010 (3)</t>
+          <t>2010 (3)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>05-SEP-2017 (6)</t>
+          <t>2017 (6)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>26-Oct-1998 (3), 16-Sep-1995 (3)</t>
+          <t>1998 (3), 1995 (3)</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>01-APR-2017 (6)</t>
+          <t>2017 (6)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21554,7 +21554,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>19-May-2004 (3), 16-Jul-1998 (3)</t>
+          <t>2004 (3), 1998 (3)</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -21612,7 +21612,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>11-JUN-2014 (3)</t>
+          <t>2014 (3)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21627,12 +21627,12 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>01-Mar-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>nan (2), NP (1)</t>
+          <t>NA (2), NP (1)</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -21685,12 +21685,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>31-MAR-2020 (7)</t>
+          <t>2020 (7)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>nan (3), buffalo (3), tick (1)</t>
+          <t>NA (3), buffalo (3), tick (1)</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>13-Oct-2017 (3), Dec-2017 (3), Oct-2017 (1)</t>
+          <t>2017 (7)</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -21754,7 +21754,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>14-NOV-2022 (9), 10-DEC-2022 (6)</t>
+          <t>2022 (15)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>1975 (3), Feb-1981 (3), Mar-1960 (3), Jun-2014 (3), Dec-1979 (3)</t>
+          <t>1975 (3), 1981 (3), 1960 (3), 2014 (3), 1979 (3)</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>01-NOV-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>03-Oct-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>24-MAY-2013 (2)</t>
+          <t>2013 (2)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -21907,7 +21907,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>03-Oct-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -21961,7 +21961,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>03-SEP-2016 (3), 31-DEC-2016 (1)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>03-SEP-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>04-OCT-2015 (15)</t>
+          <t>2015 (15)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>capsid protein (14), nan (1)</t>
+          <t>capsid protein (14), NA (1)</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>04-OCT-2015 (23)</t>
+          <t>2015 (23)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>30-AUG-2012 (3)</t>
+          <t>2012 (3)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>27-JUL-2012 (30), 25-JUL-2016 (12)</t>
+          <t>2012 (30), 2016 (12)</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (3)</t>
+          <t>2016 (3)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (1), 27-JUL-2012 (1)</t>
+          <t>2016 (1), 2012 (1)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22513,7 +22513,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>27-JUL-2012 (6), 25-JUL-2016 (3)</t>
+          <t>2012 (6), 2016 (3)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22582,7 +22582,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (2)</t>
+          <t>2016 (2)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (17), 27-JUL-2012 (8)</t>
+          <t>2016 (17), 2012 (8)</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22789,7 +22789,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>30-JAN-2013 (2)</t>
+          <t>2013 (2)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>30-JAN-2013 (6)</t>
+          <t>2013 (6)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>25-AUG-2020 (8), 08-MAY-2023 (3), 07-MAY-2023 (3)</t>
+          <t>2020 (8), 2023 (6)</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Jun-2017 (7), 22-May-2017 (6), Jul-2017 (1)</t>
+          <t>2017 (14)</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>12-MAR-2014 (64)</t>
+          <t>2014 (64)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>01-Oct-2012 (41), 01-Jul-2013 (23)</t>
+          <t>2012 (41), 2013 (23)</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>17-JUL-2016 (7)</t>
+          <t>2016 (7)</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>May-2016 (6), 06-Jun-2016 (1)</t>
+          <t>2016 (7)</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>17-JUL-2016 (7), 11-JUL-2016 (3)</t>
+          <t>2016 (10)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23149,7 +23149,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>May-2016 (6), 02-May-2016 (3), 06-Jun-2016 (1)</t>
+          <t>2016 (10)</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (29)</t>
+          <t>2016 (29)</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>nucleocapsid protein (25), nan (4)</t>
+          <t>nucleocapsid protein (25), NA (4)</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (22)</t>
+          <t>2023 (22)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (25)</t>
+          <t>2023 (25)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (19)</t>
+          <t>2023 (19)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>27-JUL-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (14), 27-JUL-2012 (10)</t>
+          <t>2016 (14), 2012 (10)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23617,7 +23617,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (15), 27-JUL-2012 (6)</t>
+          <t>2016 (15), 2012 (6)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (7)</t>
+          <t>2016 (7)</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (12), 27-JUL-2012 (8)</t>
+          <t>2016 (12), 2012 (8)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -23824,7 +23824,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>20-FEB-2023 (10), 01-FEB-2023 (6), 21-FEB-2023 (5), 22-FEB-2023 (3), 31-JAN-2023 (1)</t>
+          <t>2023 (25)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23893,7 +23893,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>21-FEB-2023 (5), 13-FEB-2023 (3)</t>
+          <t>2023 (8)</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>20-FEB-2023 (6), 21-FEB-2023 (5), 22-FEB-2023 (3)</t>
+          <t>2023 (14)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>20-FEB-2023 (8), 22-FEB-2023 (3), 21-FEB-2023 (3)</t>
+          <t>2023 (14)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>21-FEB-2023 (5)</t>
+          <t>2023 (5)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24165,7 +24165,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>21-FEB-2023 (5), 25-JAN-2023 (2)</t>
+          <t>2023 (7)</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24234,7 +24234,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (7)</t>
+          <t>2023 (7)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (3)</t>
+          <t>2023 (3)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>21-MAR-2018 (18)</t>
+          <t>2018 (18)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24445,22 +24445,22 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (15)</t>
+          <t>2016 (15)</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>14-JUL-2016 (14)</t>
+          <t>2016 (14)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24587,7 +24587,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (16)</t>
+          <t>2016 (16)</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24652,7 +24652,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>26-NOV-2013 (2)</t>
+          <t>2013 (2)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Jun-2004 (1), May-2003 (1)</t>
+          <t>2004 (1), 2003 (1)</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>09-NOV-2015 (4), 04-NOV-2015 (3), 20-OCT-2015 (2)</t>
+          <t>2015 (9)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -24740,7 +24740,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>2013 (4), 2014 (4), 07-Jun-2013 (1)</t>
+          <t>2013 (5), 2014 (4)</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -24794,12 +24794,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (14), 25-JUL-2016 (6), 22-JAN-2004 (2)</t>
+          <t>2016 (20), 2004 (2)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>nan (13), tick (6), Homo sapiens (3)</t>
+          <t>NA (13), tick (6), Homo sapiens (3)</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -24809,7 +24809,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (22)</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -24859,12 +24859,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (4), 26-JUL-2016 (2)</t>
+          <t>2016 (6)</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>nan (4), tick (1), Homo sapiens (1)</t>
+          <t>NA (4), tick (1), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (5), 22-JAN-2004 (2)</t>
+          <t>2016 (5), 2004 (2)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -24943,7 +24943,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -24997,12 +24997,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>23-JUL-2016 (5), 26-JUL-2016 (4), 25-JUL-2016 (4), 22-JAN-2004 (2)</t>
+          <t>2016 (13), 2004 (2)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>nan (9), tick (4), Homo sapiens (2)</t>
+          <t>NA (9), tick (4), Homo sapiens (2)</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -25070,7 +25070,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>02-SEP-2022 (4), 21-SEP-2022 (1)</t>
+          <t>2022 (5)</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25085,12 +25085,12 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>nan (4), 2014 (1)</t>
+          <t>NA (4), 2014 (1)</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>nan (2), cytochrome c oxidase subunit I (2), nucleocapsid protein (1)</t>
+          <t>NA (2), cytochrome c oxidase subunit I (2), nucleocapsid protein (1)</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -25139,7 +25139,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>31-OCT-2015 (22), 04-OCT-2015 (16)</t>
+          <t>2015 (38)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25208,7 +25208,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>31-OCT-2015 (39), 04-OCT-2015 (7)</t>
+          <t>2015 (46)</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25277,7 +25277,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>26-OCT-2005 (2)</t>
+          <t>2005 (2)</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -25346,22 +25346,22 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>31-AUG-2001 (3), 13-SEP-2001 (1)</t>
+          <t>2001 (4)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>nan (2), China (1), China: XinJiang (1)</t>
+          <t>NA (2), China (1), China: XinJiang (1)</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -25415,12 +25415,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>27-SEP-2001 (1), 31-AUG-2001 (1)</t>
+          <t>2001 (2)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -25430,7 +25430,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>16-MAR-2020 (4)</t>
+          <t>2020 (4)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25553,7 +25553,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>28-MAR-2020 (50)</t>
+          <t>2020 (50)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>2015/2017 (25), 2012/2015 (25)</t>
+          <t>2015 (25), 2012 (25)</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -25626,12 +25626,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (4)</t>
+          <t>2016 (4)</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>22-MAR-2020 (36), 30-JUN-2020 (6)</t>
+          <t>2020 (42)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>22-MAR-2020 (36), 30-JUN-2020 (6)</t>
+          <t>2020 (42)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -25829,12 +25829,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>06-SEP-2017 (5)</t>
+          <t>2017 (5)</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
@@ -25898,12 +25898,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>25-NOV-2016 (17), 06-SEP-2017 (4)</t>
+          <t>2016 (17), 2017 (4)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (21)</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (21)</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -25967,12 +25967,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>06-SEP-2017 (5), 25-NOV-2016 (1)</t>
+          <t>2017 (5), 2016 (1)</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -25987,7 +25987,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -26036,12 +26036,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>23-JUL-2016 (5)</t>
+          <t>2016 (5)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -26105,12 +26105,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>26-JUL-2016 (8)</t>
+          <t>2016 (8)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -26174,7 +26174,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>27-JUN-2023 (6), 05-APR-2023 (5)</t>
+          <t>2023 (11)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26247,12 +26247,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>14-JAN-2012 (1), 12-NOV-2011 (1), 06-NOV-2011 (1)</t>
+          <t>2011 (2), 2012 (1)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Homo sapiens (2), nan (1)</t>
+          <t>Homo sapiens (2), NA (1)</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (52)</t>
+          <t>2016 (52)</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26385,7 +26385,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>31-OCT-2015 (49), 31-AUG-2015 (1)</t>
+          <t>2015 (50)</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26454,7 +26454,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (10)</t>
+          <t>2016 (10)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>15-AUG-2023 (5), 14-MAR-2023 (1)</t>
+          <t>2023 (6)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26592,22 +26592,22 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>25-JUL-2016 (11), 04-MAR-1997 (7), 04-APR-2007 (2), 13-AUG-2018 (1), 14-JUL-2003 (1), 15-DEC-2004 (1)</t>
+          <t>2016 (11), 1997 (7), 2007 (2), 2018 (1), 2003 (1), 2004 (1)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>nan (13), Homo sapiens (4), Hyalomma marginatum (2), Hyalomma asiaticum (2), Hyalomma anatolicum (2)</t>
+          <t>NA (13), Homo sapiens (4), Hyalomma marginatum (2), Hyalomma asiaticum (2), Hyalomma anatolicum (2)</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>nan (8), Tajikistan (7), Kazakhstan (5), Turkmenistan (1), Russia: Rostov region (1), Bulgaria (1)</t>
+          <t>NA (8), Tajikistan (7), Kazakhstan (5), Turkmenistan (1), Russia: Rostov region (1), Bulgaria (1)</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1), nan (1)</t>
+          <t>NA (23)</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -26661,7 +26661,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>29-JUN-2015 (1), 22-JUL-2015 (1)</t>
+          <t>2015 (2)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>20-May-2012 (2)</t>
+          <t>2012 (2)</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -26730,22 +26730,22 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>10-NOV-2003 (1), 30-MAR-2004 (1)</t>
+          <t>2003 (1), 2004 (1)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>nan (1), nan (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>24-JUL-2016 (1), 29-JAN-2013 (1)</t>
+          <t>2016 (1), 2013 (1)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>01-DEC-2015 (25)</t>
+          <t>2015 (25)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>13-NOV-2020 (57), 27-JUN-2020 (36), 24-JUN-2020 (30)</t>
+          <t>2020 (123)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27014,7 +27014,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>24-JAN-2024 (2)</t>
+          <t>2024 (2)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>06-SEP-2017 (48)</t>
+          <t>2017 (48)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
